--- a/public/DataGuru/Guru.xlsx
+++ b/public/DataGuru/Guru.xlsx
@@ -1,51 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25209"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andreas\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pratama\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719960ED-7BCB-4EAA-9667-8269926C8222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7650"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" forceFullCalc="1"/>
+  <calcPr calcId="191029" forceFullCalc="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>SMA</t>
-  </si>
-  <si>
-    <t>2022-01-11 02:55:19</t>
-  </si>
-  <si>
-    <t>XMIPA2</t>
-  </si>
-  <si>
-    <t>SMP</t>
-  </si>
-  <si>
-    <t>XIPS1</t>
-  </si>
-  <si>
-    <t>Guru 1</t>
-  </si>
-  <si>
-    <t>Guru 2</t>
+    <t>Irawan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -135,7 +128,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -170,7 +163,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -378,62 +371,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>1</v>
+        <v>202020</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1">
-        <v>101010</v>
-      </c>
-      <c r="D1" t="s">
         <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>202020</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/public/DataGuru/Guru.xlsx
+++ b/public/DataGuru/Guru.xlsx
@@ -1,49 +1,66 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25209"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pratama\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kerja\Raport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719960ED-7BCB-4EAA-9667-8269926C8222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" forceFullCalc="1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913" forceFullCalc="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Irawan</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+  <si>
+    <t>2022-01-11 02:55:19</t>
+  </si>
+  <si>
+    <t>Budi Darmadi, S.Pd</t>
+  </si>
+  <si>
+    <t>assets/gallery-ttd-guru/budi.jpg</t>
+  </si>
+  <si>
+    <t>Budi Novyanto, M.Kom</t>
+  </si>
+  <si>
+    <t>assets/gallery-ttd-guru/budin.png</t>
+  </si>
+  <si>
+    <t>Feri Yohanes, S.Pd</t>
+  </si>
+  <si>
+    <t>assets/gallery-ttd-guru/feri.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -66,8 +83,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -128,7 +147,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -163,7 +182,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -371,23 +390,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="2">
+        <v>101010</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <v>202020</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>303030</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>